--- a/Java/BGTransport/src/main/resources/excel/list/pullmanStop.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/pullmanStop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86d5980519d90a03/Desktop/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a8a40ee8ef1bb/Desktop/BGTransport/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8897CFF9-961A-4CB8-839E-5B7D2C3D4662}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4769523F-213B-4CDC-94A4-17DAE76CCC5F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
   </bookViews>
   <sheets>
     <sheet name="Fermate" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1138">
   <si>
     <t>piazza Libertà</t>
   </si>
@@ -4272,18 +4272,6 @@
     <t>9.5963684</t>
   </si>
   <si>
-    <t>42.2407</t>
-  </si>
-  <si>
-    <t>13.19113</t>
-  </si>
-  <si>
-    <t>42.2409962</t>
-  </si>
-  <si>
-    <t>13.1913421</t>
-  </si>
-  <si>
     <t>45.660198</t>
   </si>
   <si>
@@ -4614,12 +4602,6 @@
     <t>9.6307376</t>
   </si>
   <si>
-    <t>45.690341</t>
-  </si>
-  <si>
-    <t>8.930829</t>
-  </si>
-  <si>
     <t>45.6965945</t>
   </si>
   <si>
@@ -4644,12 +4626,6 @@
     <t>9.6461114</t>
   </si>
   <si>
-    <t>43.433888</t>
-  </si>
-  <si>
-    <t>13.607885</t>
-  </si>
-  <si>
     <t>45.6866154</t>
   </si>
   <si>
@@ -5124,12 +5100,6 @@
     <t>9.7264781</t>
   </si>
   <si>
-    <t>44.347321</t>
-  </si>
-  <si>
-    <t>9.3186138</t>
-  </si>
-  <si>
     <t>45.6798967</t>
   </si>
   <si>
@@ -5680,6 +5650,84 @@
   </si>
   <si>
     <t>via Presolana Centro per l'impiego</t>
+  </si>
+  <si>
+    <t>45.70303</t>
+  </si>
+  <si>
+    <t>9.56615</t>
+  </si>
+  <si>
+    <t>45.687135</t>
+  </si>
+  <si>
+    <t>9.672557</t>
+  </si>
+  <si>
+    <t>45.758894</t>
+  </si>
+  <si>
+    <t>9.717675</t>
+  </si>
+  <si>
+    <t>45.76833</t>
+  </si>
+  <si>
+    <t>9.71451</t>
+  </si>
+  <si>
+    <t>45.731712</t>
+  </si>
+  <si>
+    <t>9.728575</t>
+  </si>
+  <si>
+    <t>45.73179</t>
+  </si>
+  <si>
+    <t>9.72468</t>
+  </si>
+  <si>
+    <t>45.734798</t>
+  </si>
+  <si>
+    <t>9.740445</t>
+  </si>
+  <si>
+    <t>45.74432</t>
+  </si>
+  <si>
+    <t>9.71748</t>
+  </si>
+  <si>
+    <t>9.719782</t>
+  </si>
+  <si>
+    <t>45.738378</t>
+  </si>
+  <si>
+    <t>9.719753</t>
+  </si>
+  <si>
+    <t>45.73132</t>
+  </si>
+  <si>
+    <t>9.73006</t>
+  </si>
+  <si>
+    <t>45.751759</t>
+  </si>
+  <si>
+    <t>9.700146</t>
+  </si>
+  <si>
+    <t>45.738264</t>
+  </si>
+  <si>
+    <t>45.684925</t>
+  </si>
+  <si>
+    <t>9.718227</t>
   </si>
 </sst>
 </file>
@@ -6931,6 +6979,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7442,8 +7494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBE9082-5BDB-432F-A5D2-191D3DF93D3F}">
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7483,10 +7535,10 @@
         <v>305</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7500,10 +7552,10 @@
         <v>305</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7688,10 +7740,10 @@
         <v>305</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>652</v>
+        <v>1122</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>653</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7705,10 +7757,10 @@
         <v>305</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>654</v>
+        <v>1116</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>655</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7722,10 +7774,10 @@
         <v>305</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>652</v>
+        <v>1118</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>653</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7739,10 +7791,10 @@
         <v>305</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>652</v>
+        <v>1120</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>653</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7756,10 +7808,10 @@
         <v>305</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>654</v>
+        <v>1124</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>655</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7773,10 +7825,10 @@
         <v>305</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>654</v>
+        <v>1126</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>655</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7790,10 +7842,10 @@
         <v>305</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>654</v>
+        <v>1129</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>655</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7807,10 +7859,10 @@
         <v>305</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>654</v>
+        <v>1135</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>655</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7824,10 +7876,10 @@
         <v>305</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>654</v>
+        <v>1131</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>655</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7841,10 +7893,10 @@
         <v>305</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>654</v>
+        <v>1133</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>655</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7858,10 +7910,10 @@
         <v>305</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7875,10 +7927,10 @@
         <v>305</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7892,10 +7944,10 @@
         <v>305</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7909,10 +7961,10 @@
         <v>305</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7926,10 +7978,10 @@
         <v>305</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7943,10 +7995,10 @@
         <v>305</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7960,10 +8012,10 @@
         <v>305</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7977,10 +8029,10 @@
         <v>305</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7994,10 +8046,10 @@
         <v>305</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8011,10 +8063,10 @@
         <v>305</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8028,10 +8080,10 @@
         <v>305</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8045,10 +8097,10 @@
         <v>305</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8062,10 +8114,10 @@
         <v>305</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8079,10 +8131,10 @@
         <v>305</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8096,10 +8148,10 @@
         <v>305</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8113,10 +8165,10 @@
         <v>305</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8130,10 +8182,10 @@
         <v>305</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8147,10 +8199,10 @@
         <v>305</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8164,10 +8216,10 @@
         <v>305</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8181,10 +8233,10 @@
         <v>305</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8198,10 +8250,10 @@
         <v>305</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8215,10 +8267,10 @@
         <v>305</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8232,10 +8284,10 @@
         <v>305</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8249,10 +8301,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8266,10 +8318,10 @@
         <v>305</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8283,10 +8335,10 @@
         <v>305</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8300,10 +8352,10 @@
         <v>305</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8317,10 +8369,10 @@
         <v>305</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8334,10 +8386,10 @@
         <v>305</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8351,10 +8403,10 @@
         <v>305</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8368,10 +8420,10 @@
         <v>305</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8385,10 +8437,10 @@
         <v>305</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8402,10 +8454,10 @@
         <v>305</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8419,10 +8471,10 @@
         <v>305</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8436,10 +8488,10 @@
         <v>305</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8453,10 +8505,10 @@
         <v>305</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8470,10 +8522,10 @@
         <v>305</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8487,10 +8539,10 @@
         <v>305</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8504,10 +8556,10 @@
         <v>305</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8521,10 +8573,10 @@
         <v>305</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8538,10 +8590,10 @@
         <v>305</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8555,10 +8607,10 @@
         <v>305</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8572,10 +8624,10 @@
         <v>305</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8589,10 +8641,10 @@
         <v>305</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8606,10 +8658,10 @@
         <v>305</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8623,10 +8675,10 @@
         <v>305</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8640,10 +8692,10 @@
         <v>305</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8657,10 +8709,10 @@
         <v>305</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8674,10 +8726,10 @@
         <v>305</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8691,10 +8743,10 @@
         <v>305</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8708,10 +8760,10 @@
         <v>305</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8725,10 +8777,10 @@
         <v>305</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8742,10 +8794,10 @@
         <v>305</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8759,10 +8811,10 @@
         <v>305</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8776,10 +8828,10 @@
         <v>305</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8793,10 +8845,10 @@
         <v>305</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8810,10 +8862,10 @@
         <v>305</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8827,10 +8879,10 @@
         <v>305</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8844,10 +8896,10 @@
         <v>305</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8861,10 +8913,10 @@
         <v>305</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>766</v>
+        <v>1112</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>767</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8878,10 +8930,10 @@
         <v>305</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -8895,10 +8947,10 @@
         <v>305</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,10 +8964,10 @@
         <v>305</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -8929,10 +8981,10 @@
         <v>305</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -8946,10 +8998,10 @@
         <v>305</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>776</v>
+        <v>1114</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>777</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -8963,10 +9015,10 @@
         <v>305</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -8980,10 +9032,10 @@
         <v>305</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -8997,10 +9049,10 @@
         <v>305</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9014,10 +9066,10 @@
         <v>305</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9031,10 +9083,10 @@
         <v>305</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9048,10 +9100,10 @@
         <v>305</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9065,10 +9117,10 @@
         <v>305</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9082,10 +9134,10 @@
         <v>305</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9099,10 +9151,10 @@
         <v>305</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9116,10 +9168,10 @@
         <v>305</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9133,10 +9185,10 @@
         <v>305</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9150,10 +9202,10 @@
         <v>305</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9167,10 +9219,10 @@
         <v>305</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9184,10 +9236,10 @@
         <v>305</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9201,10 +9253,10 @@
         <v>305</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9218,10 +9270,10 @@
         <v>305</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9235,10 +9287,10 @@
         <v>305</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9252,10 +9304,10 @@
         <v>305</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9269,10 +9321,10 @@
         <v>305</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9286,10 +9338,10 @@
         <v>305</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9303,10 +9355,10 @@
         <v>305</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9320,10 +9372,10 @@
         <v>305</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9337,10 +9389,10 @@
         <v>305</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9354,10 +9406,10 @@
         <v>305</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9371,10 +9423,10 @@
         <v>305</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9388,10 +9440,10 @@
         <v>305</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9405,10 +9457,10 @@
         <v>305</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9422,10 +9474,10 @@
         <v>305</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9439,10 +9491,10 @@
         <v>305</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9456,10 +9508,10 @@
         <v>305</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9473,10 +9525,10 @@
         <v>305</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9490,10 +9542,10 @@
         <v>305</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9507,10 +9559,10 @@
         <v>305</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9524,10 +9576,10 @@
         <v>305</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9541,10 +9593,10 @@
         <v>305</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9558,10 +9610,10 @@
         <v>305</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9575,10 +9627,10 @@
         <v>305</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9592,10 +9644,10 @@
         <v>305</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9609,10 +9661,10 @@
         <v>305</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9626,10 +9678,10 @@
         <v>305</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9643,10 +9695,10 @@
         <v>305</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9660,10 +9712,10 @@
         <v>305</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9677,10 +9729,10 @@
         <v>305</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9694,10 +9746,10 @@
         <v>305</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9711,10 +9763,10 @@
         <v>305</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9728,10 +9780,10 @@
         <v>305</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9745,10 +9797,10 @@
         <v>305</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9762,10 +9814,10 @@
         <v>305</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9779,10 +9831,10 @@
         <v>305</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -9796,10 +9848,10 @@
         <v>305</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9813,10 +9865,10 @@
         <v>305</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -9830,10 +9882,10 @@
         <v>305</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -9847,10 +9899,10 @@
         <v>305</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E141" s="20" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -9864,10 +9916,10 @@
         <v>305</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -9881,10 +9933,10 @@
         <v>305</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -9898,10 +9950,10 @@
         <v>305</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -9915,10 +9967,10 @@
         <v>305</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -9932,10 +9984,10 @@
         <v>305</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -9949,10 +10001,10 @@
         <v>305</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -9966,10 +10018,10 @@
         <v>305</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -9983,10 +10035,10 @@
         <v>305</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10000,10 +10052,10 @@
         <v>305</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10017,10 +10069,10 @@
         <v>305</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10034,10 +10086,10 @@
         <v>305</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10051,10 +10103,10 @@
         <v>305</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10068,10 +10120,10 @@
         <v>305</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10085,10 +10137,10 @@
         <v>305</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10102,10 +10154,10 @@
         <v>305</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10119,10 +10171,10 @@
         <v>305</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10136,10 +10188,10 @@
         <v>305</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10153,10 +10205,10 @@
         <v>305</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10170,10 +10222,10 @@
         <v>305</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10187,10 +10239,10 @@
         <v>305</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10204,10 +10256,10 @@
         <v>305</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="E162" s="19" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10221,10 +10273,10 @@
         <v>305</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10238,10 +10290,10 @@
         <v>305</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="E164" s="19" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10255,10 +10307,10 @@
         <v>305</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10272,10 +10324,10 @@
         <v>305</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="E166" s="19" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10289,10 +10341,10 @@
         <v>305</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10306,10 +10358,10 @@
         <v>305</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="E168" s="19" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10323,10 +10375,10 @@
         <v>305</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10340,10 +10392,10 @@
         <v>305</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10357,10 +10409,10 @@
         <v>305</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10374,10 +10426,10 @@
         <v>305</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10391,10 +10443,10 @@
         <v>305</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10408,10 +10460,10 @@
         <v>305</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10425,10 +10477,10 @@
         <v>305</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>936</v>
+        <v>1136</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>937</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -10442,10 +10494,10 @@
         <v>305</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10459,10 +10511,10 @@
         <v>305</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10476,10 +10528,10 @@
         <v>305</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10493,10 +10545,10 @@
         <v>305</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="E179" s="20" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10510,10 +10562,10 @@
         <v>305</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10527,10 +10579,10 @@
         <v>305</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10544,10 +10596,10 @@
         <v>305</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="E182" s="19" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10561,10 +10613,10 @@
         <v>305</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10578,10 +10630,10 @@
         <v>305</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E184" s="19" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10595,10 +10647,10 @@
         <v>305</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10612,10 +10664,10 @@
         <v>305</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E186" s="19" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10629,10 +10681,10 @@
         <v>305</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10646,10 +10698,10 @@
         <v>305</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10663,10 +10715,10 @@
         <v>305</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10680,10 +10732,10 @@
         <v>305</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="E190" s="19" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10697,10 +10749,10 @@
         <v>305</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E191" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10714,10 +10766,10 @@
         <v>305</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="E192" s="19" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -10731,10 +10783,10 @@
         <v>305</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E193" s="20" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -10748,10 +10800,10 @@
         <v>305</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E194" s="19" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10765,10 +10817,10 @@
         <v>305</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -10782,10 +10834,10 @@
         <v>305</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="E196" s="19" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -10799,10 +10851,10 @@
         <v>305</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -10816,10 +10868,10 @@
         <v>305</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="E198" s="19" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -10833,10 +10885,10 @@
         <v>305</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -10850,10 +10902,10 @@
         <v>305</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="E200" s="19" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -10867,10 +10919,10 @@
         <v>305</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="E201" s="20" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -10884,10 +10936,10 @@
         <v>305</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="E202" s="19" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -10901,10 +10953,10 @@
         <v>305</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E203" s="20" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -10918,10 +10970,10 @@
         <v>305</v>
       </c>
       <c r="D204" s="19" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="E204" s="19" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -10935,15 +10987,15 @@
         <v>305</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="E205" s="20" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>304</v>
@@ -10952,10 +11004,10 @@
         <v>305</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="E206" s="19" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -10969,10 +11021,10 @@
         <v>305</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="E207" s="20" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -10986,10 +11038,10 @@
         <v>305</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E208" s="19" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -11003,10 +11055,10 @@
         <v>305</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="E209" s="20" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -11020,10 +11072,10 @@
         <v>305</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="E210" s="19" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -11037,10 +11089,10 @@
         <v>305</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E211" s="20" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -11054,10 +11106,10 @@
         <v>305</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="E212" s="19" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -11071,10 +11123,10 @@
         <v>305</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="E213" s="20" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -11088,10 +11140,10 @@
         <v>305</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="E214" s="19" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -11105,10 +11157,10 @@
         <v>305</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="E215" s="20" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -11122,10 +11174,10 @@
         <v>305</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="E216" s="19" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -11139,10 +11191,10 @@
         <v>305</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="E217" s="20" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -11156,10 +11208,10 @@
         <v>305</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="E218" s="19" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -11173,10 +11225,10 @@
         <v>305</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="E219" s="20" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -11190,10 +11242,10 @@
         <v>305</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -11207,10 +11259,10 @@
         <v>305</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="E221" s="20" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -11224,10 +11276,10 @@
         <v>305</v>
       </c>
       <c r="D222" s="19" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -11241,10 +11293,10 @@
         <v>305</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="E223" s="20" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -11258,10 +11310,10 @@
         <v>305</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -11275,10 +11327,10 @@
         <v>305</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E225" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -11292,10 +11344,10 @@
         <v>305</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E226" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -11309,10 +11361,10 @@
         <v>305</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E227" s="20" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -11326,10 +11378,10 @@
         <v>305</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -11343,10 +11395,10 @@
         <v>305</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="E229" s="20" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -11360,10 +11412,10 @@
         <v>305</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -11377,10 +11429,10 @@
         <v>305</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="E231" s="20" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -11394,10 +11446,10 @@
         <v>305</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E232" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -11411,10 +11463,10 @@
         <v>305</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="E233" s="20" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -11428,10 +11480,10 @@
         <v>305</v>
       </c>
       <c r="D234" s="19" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="E234" s="19" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -11445,10 +11497,10 @@
         <v>305</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="E235" s="20" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -11462,10 +11514,10 @@
         <v>305</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -11479,10 +11531,10 @@
         <v>305</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E237" s="20" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -11496,10 +11548,10 @@
         <v>305</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -11513,10 +11565,10 @@
         <v>305</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="E239" s="20" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -11530,10 +11582,10 @@
         <v>305</v>
       </c>
       <c r="D240" s="19" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E240" s="19" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -11547,10 +11599,10 @@
         <v>305</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="E241" s="20" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -11564,10 +11616,10 @@
         <v>305</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="E242" s="19" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -11581,10 +11633,10 @@
         <v>305</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E243" s="20" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -11598,10 +11650,10 @@
         <v>305</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -11615,10 +11667,10 @@
         <v>305</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="E245" s="20" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -11632,10 +11684,10 @@
         <v>305</v>
       </c>
       <c r="D246" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E246" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -11649,10 +11701,10 @@
         <v>305</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E247" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -11666,10 +11718,10 @@
         <v>305</v>
       </c>
       <c r="D248" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E248" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -11683,10 +11735,10 @@
         <v>305</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="E249" s="20" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -11700,10 +11752,10 @@
         <v>305</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="E250" s="19" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -11717,10 +11769,10 @@
         <v>305</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="E251" s="20" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -11734,10 +11786,10 @@
         <v>305</v>
       </c>
       <c r="D252" s="19" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="E252" s="19" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -11751,10 +11803,10 @@
         <v>305</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="E253" s="20" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -11768,10 +11820,10 @@
         <v>305</v>
       </c>
       <c r="D254" s="19" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="E254" s="19" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -11785,10 +11837,10 @@
         <v>305</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="E255" s="20" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -11802,10 +11854,10 @@
         <v>305</v>
       </c>
       <c r="D256" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E256" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -11819,10 +11871,10 @@
         <v>305</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="E257" s="20" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -11836,10 +11888,10 @@
         <v>305</v>
       </c>
       <c r="D258" s="19" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="E258" s="19" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -11853,10 +11905,10 @@
         <v>305</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E259" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -11870,10 +11922,10 @@
         <v>305</v>
       </c>
       <c r="D260" s="19" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="E260" s="19" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -11887,10 +11939,10 @@
         <v>305</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E261" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -11904,10 +11956,10 @@
         <v>305</v>
       </c>
       <c r="D262" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E262" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -11921,10 +11973,10 @@
         <v>305</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="E263" s="20" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -11938,10 +11990,10 @@
         <v>305</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="E264" s="19" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -11955,10 +12007,10 @@
         <v>305</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="E265" s="20" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -11972,10 +12024,10 @@
         <v>305</v>
       </c>
       <c r="D266" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E266" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -11989,10 +12041,10 @@
         <v>305</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E267" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -12006,10 +12058,10 @@
         <v>305</v>
       </c>
       <c r="D268" s="19" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="E268" s="19" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -12023,15 +12075,15 @@
         <v>305</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="E269" s="20" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="B270" s="18" t="s">
         <v>304</v>
@@ -12040,10 +12092,10 @@
         <v>305</v>
       </c>
       <c r="D270" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E270" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -12057,10 +12109,10 @@
         <v>305</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="E271" s="20" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -12074,10 +12126,10 @@
         <v>305</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E272" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -12091,10 +12143,10 @@
         <v>305</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="E273" s="20" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -12108,10 +12160,10 @@
         <v>305</v>
       </c>
       <c r="D274" s="19" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="E274" s="19" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -12125,10 +12177,10 @@
         <v>305</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="E275" s="20" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -12142,10 +12194,10 @@
         <v>305</v>
       </c>
       <c r="D276" s="19" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="E276" s="19" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -12159,10 +12211,10 @@
         <v>305</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="E277" s="20" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -12176,10 +12228,10 @@
         <v>305</v>
       </c>
       <c r="D278" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E278" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -12193,10 +12245,10 @@
         <v>305</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="E279" s="20" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -12210,10 +12262,10 @@
         <v>305</v>
       </c>
       <c r="D280" s="19" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="E280" s="19" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -12227,10 +12279,10 @@
         <v>305</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="E281" s="20" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -12244,10 +12296,10 @@
         <v>305</v>
       </c>
       <c r="D282" s="19" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="E282" s="19" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -12261,10 +12313,10 @@
         <v>305</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="E283" s="20" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -12278,10 +12330,10 @@
         <v>305</v>
       </c>
       <c r="D284" s="19" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="E284" s="19" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -12295,10 +12347,10 @@
         <v>305</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="E285" s="20" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -12312,10 +12364,10 @@
         <v>305</v>
       </c>
       <c r="D286" s="19" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="E286" s="19" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -12329,10 +12381,10 @@
         <v>305</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="E287" s="20" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -12346,10 +12398,10 @@
         <v>305</v>
       </c>
       <c r="D288" s="19" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E288" s="19" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
